--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -9,26 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="其他有價證券" sheetId="10" r:id="rId10"/>
-    <sheet name="具有相當價值之財產" sheetId="11" r:id="rId11"/>
-    <sheet name="保險" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="債券" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
   <si>
     <t>土地坐落</t>
   </si>
@@ -105,45 +95,24 @@
     <t>10,000,000(房 地總價額）</t>
   </si>
   <si>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
     <t>臺灣銀行永和分行</t>
   </si>
   <si>
@@ -192,166 +161,106 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>三洋電</t>
+  </si>
+  <si>
+    <t>聯華實業</t>
+  </si>
+  <si>
+    <t>台聚</t>
+  </si>
+  <si>
+    <t>國喬</t>
+  </si>
+  <si>
+    <t>遠東新</t>
+  </si>
+  <si>
+    <t>華泰電子</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>代碼</t>
+  </si>
+  <si>
+    <t>買賣機構</t>
+  </si>
+  <si>
+    <t>單位數</t>
   </si>
   <si>
     <t>票面價額</t>
   </si>
   <si>
+    <t>名 稱</t>
+  </si>
+  <si>
+    <t>富達新興市場基 金</t>
+  </si>
+  <si>
+    <t>富達歐洲小型企 業基金</t>
+  </si>
+  <si>
+    <t>施羅德環球-歐 元增值</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業 基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界能源 基金</t>
+  </si>
+  <si>
+    <t>受託投資機構</t>
+  </si>
+  <si>
+    <t>渣打國際商業 銀行</t>
+  </si>
+  <si>
+    <t>票面價額 (單位淨值）</t>
+  </si>
+  <si>
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>三洋電</t>
-  </si>
-  <si>
-    <t>聯華實業</t>
-  </si>
-  <si>
-    <t>台聚</t>
-  </si>
-  <si>
-    <t>國喬</t>
-  </si>
-  <si>
-    <t>遠東新</t>
-  </si>
-  <si>
-    <t>華泰電子</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>名 稱</t>
-  </si>
-  <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>富達歐洲小型企 業基金</t>
-  </si>
-  <si>
-    <t>施羅德環球-歐 元增值</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界能源 基金</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>渣打國際商業 銀行</t>
-  </si>
-  <si>
-    <t>票面價額 (單位淨值）</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣 總 額</t>
   </si>
   <si>
     <t>458，621</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
 </sst>
 </file>
@@ -796,240 +705,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
@@ -1120,138 +795,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1260,22 +803,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1283,13 +826,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1304,13 +847,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1325,13 +868,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1346,13 +889,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1367,13 +910,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1388,13 +931,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1409,13 +952,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -1430,13 +973,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -1451,13 +994,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -1472,13 +1015,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1493,13 +1036,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1514,13 +1057,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1537,13 +1080,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1560,13 +1103,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1583,13 +1126,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1606,178 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2333</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>170</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>159</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>671</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2">
-        <v>550</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1787,34 +1159,262 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2333</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23330</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
         <v>64</v>
       </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2">
+        <v>640</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>170</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1700</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1590</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>671</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6710</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>550</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>81</v>
       </c>
@@ -1828,21 +1428,19 @@
         <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>82</v>
       </c>
@@ -1862,15 +1460,13 @@
         <v>20.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -1890,15 +1486,13 @@
         <v>25.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <v>701253</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -1918,15 +1512,13 @@
         <v>23.72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2">
         <v>208750</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>85</v>
       </c>
@@ -1946,15 +1538,13 @@
         <v>64.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <v>152712</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>86</v>
       </c>
@@ -1974,13 +1564,11 @@
         <v>23.86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>358809</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>土地坐落</t>
   </si>
@@ -179,6 +179,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
   </si>
   <si>
     <t>華泰電子</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-05</t>
@@ -1151,13 +1157,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1185,13 +1191,16 @@
       <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1209,21 +1218,24 @@
         <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1754</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1241,21 +1253,24 @@
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1754</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1273,21 +1288,24 @@
         <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1754</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1305,21 +1323,24 @@
         <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1754</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1337,21 +1358,24 @@
         <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1754</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1369,12 +1393,15 @@
         <v>550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1754</v>
       </c>
     </row>
@@ -1393,25 +1420,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1419,25 +1446,25 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1445,13 +1472,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>763.45</v>
@@ -1463,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1471,13 +1498,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>705.75</v>
@@ -1497,13 +1524,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>226.12</v>
@@ -1523,13 +1550,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>80.62</v>
@@ -1549,13 +1576,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>509.68</v>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -182,6 +182,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -191,6 +194,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>三洋電</t>
   </si>
   <si>
@@ -212,7 +221,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>tmpc08e1</t>
   </si>
   <si>
     <t>名</t>
@@ -1157,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1194,13 +1209,22 @@
       <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1218,24 +1242,33 @@
         <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1754</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1253,24 +1286,33 @@
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1754</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1288,24 +1330,33 @@
         <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1754</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1323,24 +1374,33 @@
         <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1754</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1358,24 +1418,33 @@
         <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1754</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1393,16 +1462,25 @@
         <v>550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1754</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1420,25 +1498,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1446,25 +1524,25 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1472,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>763.45</v>
@@ -1490,7 +1568,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1498,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>705.75</v>
@@ -1524,13 +1602,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>226.12</v>
@@ -1550,13 +1628,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>80.62</v>
@@ -1576,13 +1654,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>509.68</v>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,9 +18,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市中和區潭墘段潭墘小段03120006地號</t>
+  </si>
+  <si>
+    <t>新北市中和區安平段06410000地號</t>
+  </si>
+  <si>
+    <t>10000分之1623</t>
+  </si>
+  <si>
+    <t>10000分之471</t>
+  </si>
+  <si>
+    <t>黃吉妹</t>
+  </si>
+  <si>
+    <t>陳鎮湘</t>
+  </si>
+  <si>
+    <t>76年04月21H</t>
+  </si>
+  <si>
+    <t>90年10月02日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>3400000(房地總價額）</t>
+  </si>
+  <si>
+    <t>10000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>tmpc08e1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,58 +128,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市中和區潭墘段潭墘小段 0312-0006 地號</t>
-  </si>
-  <si>
-    <t>新北市中和區安平段0641 -0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 1623</t>
-  </si>
-  <si>
-    <t>10000分之 471</t>
-  </si>
-  <si>
-    <t>黃吉妹</t>
-  </si>
-  <si>
-    <t>陳鎮湘</t>
-  </si>
-  <si>
-    <t>76年04月 21 H</t>
-  </si>
-  <si>
-    <t>90年10月 02日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>3，400，000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>10,000，000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市中和區潭墘段潭墘小段 06660-000 建號</t>
-  </si>
-  <si>
-    <t>新北市中和區安平段02739-000 建號</t>
+    <t>新北市中和區潭墘段潭墘小段06660000建號</t>
+  </si>
+  <si>
+    <t>新北市中和區安平段02739000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>76年04月 21曰</t>
-  </si>
-  <si>
-    <t>3,400,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>10,000,000(房 地總價額）</t>
+    <t>76年04月21曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -119,7 +164,7 @@
     <t>臺灣銀行龍山分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司中 和宜安郵局</t>
+    <t>中華郵政股份有限公司中和宜安郵局</t>
   </si>
   <si>
     <t>國防部主計局同袍儲蓄會</t>
@@ -137,10 +182,10 @@
     <t>渣打國際商業銀行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行永和分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行南台北 分行</t>
+    <t>兆豐國際商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行南台北分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -161,12 +206,6 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -179,27 +218,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>三洋電</t>
   </si>
   <si>
@@ -221,15 +239,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-05</t>
-  </si>
-  <si>
-    <t>tmpc08e1</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -248,40 +257,34 @@
     <t>票面價額</t>
   </si>
   <si>
-    <t>名 稱</t>
-  </si>
-  <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>富達歐洲小型企 業基金</t>
-  </si>
-  <si>
-    <t>施羅德環球-歐 元增值</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界能源 基金</t>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富達歐洲小型企業基金</t>
+  </si>
+  <si>
+    <t>施羅德環球歐元增值</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界能源基金</t>
   </si>
   <si>
     <t>受託投資機構</t>
   </si>
   <si>
-    <t>渣打國際商業 銀行</t>
-  </si>
-  <si>
-    <t>票面價額 (單位淨值）</t>
+    <t>票面價額(單位淨值）</t>
   </si>
   <si>
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新臺幣 總 額</t>
-  </si>
-  <si>
-    <t>458，621</t>
+    <t>458621</t>
   </si>
 </sst>
 </file>
@@ -640,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,57 +671,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>471.52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -736,25 +802,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -762,22 +828,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>174.07</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -788,22 +854,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -824,22 +890,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -847,16 +913,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -868,16 +934,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -889,16 +955,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -910,16 +976,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -931,16 +997,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -952,16 +1018,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -973,16 +1039,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -994,16 +1060,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1015,16 +1081,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1036,16 +1102,16 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1057,16 +1123,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1078,16 +1144,16 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>35593.46</v>
@@ -1101,16 +1167,16 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
         <v>10000</v>
@@ -1124,16 +1190,16 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>6197.22</v>
@@ -1147,16 +1213,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
         <v>11000</v>
@@ -1180,43 +1246,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1224,10 +1290,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>2333</v>
@@ -1236,28 +1302,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1754</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1268,10 +1334,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>64</v>
@@ -1280,28 +1346,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1754</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1312,10 +1378,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>170</v>
@@ -1324,28 +1390,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
         <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1754</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1356,10 +1422,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>159</v>
@@ -1368,28 +1434,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
         <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1754</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
         <v>72</v>
@@ -1400,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>671</v>
@@ -1412,28 +1478,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
         <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1754</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
         <v>73</v>
@@ -1444,10 +1510,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>55</v>
@@ -1456,28 +1522,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>1754</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
         <v>74</v>
@@ -1498,25 +1564,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1524,25 +1590,25 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1550,13 +1616,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>763.45</v>
@@ -1565,10 +1631,10 @@
         <v>20.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1576,13 +1642,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>705.75</v>
@@ -1591,7 +1657,7 @@
         <v>25.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2">
         <v>701253</v>
@@ -1602,13 +1668,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>226.12</v>
@@ -1617,7 +1683,7 @@
         <v>23.72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>208750</v>
@@ -1628,13 +1694,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>80.62</v>
@@ -1643,7 +1709,7 @@
         <v>64.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>152712</v>
@@ -1654,13 +1720,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>509.68</v>
@@ -1669,7 +1735,7 @@
         <v>23.86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2">
         <v>358809</v>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -62,204 +62,156 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市中和區潭墘段潭墘小段03120006地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市中和區安平段06410000地號</t>
   </si>
   <si>
-    <t>10000分之1623</t>
-  </si>
-  <si>
     <t>10000分之471</t>
   </si>
   <si>
+    <t>陳鎮湘</t>
+  </si>
+  <si>
+    <t>90年10月02日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>10000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>tmpc08e1</t>
+  </si>
+  <si>
+    <t>新北市中和區潭墘段潭墘小段06660000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>黃吉妹</t>
   </si>
   <si>
-    <t>陳鎮湘</t>
-  </si>
-  <si>
-    <t>76年04月21H</t>
-  </si>
-  <si>
-    <t>90年10月02日</t>
-  </si>
-  <si>
-    <t>買賣</t>
+    <t>76年04月21曰</t>
   </si>
   <si>
     <t>3400000(房地總價額）</t>
   </si>
   <si>
-    <t>10000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-05</t>
-  </si>
-  <si>
-    <t>tmpc08e1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市中和區潭墘段潭墘小段06660000建號</t>
-  </si>
-  <si>
     <t>新北市中和區安平段02739000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>76年04月21曰</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>臺灣銀行永和分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中和宜安郵局</t>
+  </si>
+  <si>
+    <t>國防部主計局同袍儲蓄會</t>
+  </si>
+  <si>
+    <t>萬泰商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行南台北分行</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>歐元</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>聯華實業</t>
+  </si>
+  <si>
+    <t>台聚</t>
+  </si>
+  <si>
+    <t>國喬</t>
+  </si>
+  <si>
+    <t>遠東新</t>
+  </si>
+  <si>
+    <t>華泰電子</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>名稱</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外幣總額</t>
+    <t>受託投資機構</t>
+  </si>
+  <si>
+    <t>單位數</t>
+  </si>
+  <si>
+    <t>票面價額(單位淨值）</t>
+  </si>
+  <si>
+    <t>外幣幣別</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中和宜安郵局</t>
-  </si>
-  <si>
-    <t>國防部主計局同袍儲蓄會</t>
-  </si>
-  <si>
-    <t>萬泰商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行南台北分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>三洋電</t>
-  </si>
-  <si>
-    <t>聯華實業</t>
-  </si>
-  <si>
-    <t>台聚</t>
-  </si>
-  <si>
-    <t>國喬</t>
-  </si>
-  <si>
-    <t>遠東新</t>
-  </si>
-  <si>
-    <t>華泰電子</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
     <t>富達新興市場基金</t>
   </si>
   <si>
@@ -273,15 +225,6 @@
   </si>
   <si>
     <t>貝萊德世界能源基金</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
   </si>
   <si>
     <t>458621</t>
@@ -643,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,99 +635,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1623</v>
+        <v>471.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>1754</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>471.52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1754</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.0471</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22.208592</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,77 +710,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>174.07</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>174.07</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
-        <v>158</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +764,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,344 +772,321 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>4161600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>4161600</v>
+        <v>461344</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>461344</v>
+        <v>522300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>522300</v>
+        <v>358750</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>358750</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>80000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>550000</v>
+        <v>543375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>543375</v>
+        <v>91991</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>91991</v>
+        <v>78533</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>78533</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>10000</v>
+        <v>112695.89</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>35593.46</v>
+      </c>
       <c r="G12" s="2">
-        <v>112695.89</v>
+        <v>1049651.12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2">
-        <v>35593.46</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="2">
-        <v>1049651.12</v>
+        <v>294900</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2">
-        <v>10000</v>
+        <v>6197.22</v>
       </c>
       <c r="G14" s="2">
-        <v>294900</v>
+        <v>182838</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2">
-        <v>6197.22</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="2">
-        <v>182838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11000</v>
-      </c>
-      <c r="G16" s="2">
         <v>440000</v>
       </c>
     </row>
@@ -1238,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1252,16 +1111,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1287,265 +1146,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
-        <v>2333</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>23330</v>
+        <v>640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1754</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>640</v>
+        <v>1700</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1754</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>1700</v>
+        <v>1590</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1754</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
-        <v>159</v>
+        <v>671</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>1590</v>
+        <v>6710</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1754</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
-        <v>671</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>6710</v>
+        <v>550</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1754</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2">
-        <v>550</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1754</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="2">
         <v>74</v>
       </c>
     </row>
@@ -1556,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1564,180 +1379,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>763.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>763.45</v>
+        <v>705.75</v>
       </c>
       <c r="F3" s="2">
-        <v>20.36</v>
+        <v>25.53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="H3" s="2">
+        <v>701253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
-        <v>705.75</v>
+        <v>226.12</v>
       </c>
       <c r="F4" s="2">
-        <v>25.53</v>
+        <v>23.72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
-        <v>701253</v>
+        <v>208750</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
-        <v>226.12</v>
+        <v>80.62</v>
       </c>
       <c r="F5" s="2">
-        <v>23.72</v>
+        <v>64.2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>208750</v>
+        <v>152712</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
-        <v>80.62</v>
+        <v>509.68</v>
       </c>
       <c r="F6" s="2">
-        <v>64.2</v>
+        <v>23.86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2">
-        <v>152712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2">
-        <v>509.68</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.86</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2">
         <v>358809</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -68,21 +68,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市中和區潭墘段潭墘小段03120006地號</t>
+  </si>
+  <si>
     <t>新北市中和區安平段06410000地號</t>
   </si>
   <si>
+    <t>10000分之1623</t>
+  </si>
+  <si>
     <t>10000分之471</t>
   </si>
   <si>
+    <t>黃吉妹</t>
+  </si>
+  <si>
     <t>陳鎮湘</t>
   </si>
   <si>
+    <t>76年04月21H</t>
+  </si>
+  <si>
     <t>90年10月02日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>3400000(房地總價額）</t>
+  </si>
+  <si>
     <t>10000000(房地總價額）</t>
   </si>
   <si>
@@ -101,21 +116,15 @@
     <t>新北市中和區潭墘段潭墘小段06660000建號</t>
   </si>
   <si>
+    <t>新北市中和區安平段02739000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>黃吉妹</t>
-  </si>
-  <si>
     <t>76年04月21曰</t>
   </si>
   <si>
-    <t>3400000(房地總價額）</t>
-  </si>
-  <si>
-    <t>新北市中和區安平段02739000建號</t>
-  </si>
-  <si>
     <t>臺灣銀行永和分行</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>三洋電</t>
   </si>
   <si>
     <t>聯華實業</t>
@@ -586,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,54 +656,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>471.52</v>
+        <v>1623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>1754</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.1623</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>263.4129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>471.52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.0471</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>22.208592</v>
       </c>
     </row>
@@ -702,59 +767,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1">
-        <v>174.07</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2">
+        <v>174.07</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
         <v>158</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,16 +944,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -790,303 +962,324 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>461344</v>
+        <v>4161600</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>522300</v>
+        <v>461344</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>358750</v>
+        <v>522300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>80000</v>
+        <v>358750</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>550000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>543375</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>91991</v>
+        <v>543375</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>78533</v>
+        <v>91991</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>10000</v>
+        <v>78533</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>112695.89</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2">
-        <v>35593.46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1049651.12</v>
+        <v>112695.89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>10000</v>
+        <v>35593.46</v>
       </c>
       <c r="G13" s="2">
-        <v>294900</v>
+        <v>1049651.12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>6197.22</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="2">
-        <v>182838</v>
+        <v>294900</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6197.22</v>
+      </c>
+      <c r="G15" s="2">
+        <v>182838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
         <v>11000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>440000</v>
       </c>
     </row>
@@ -1097,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1111,13 +1304,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1146,221 +1339,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>64</v>
+        <v>2333</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>640</v>
+        <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1754</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>1700</v>
+        <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1754</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>1590</v>
+        <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1754</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>671</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>6710</v>
+        <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1754</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>55</v>
+        <v>671</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>550</v>
+        <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1754</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2">
+        <v>550</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1754</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2">
         <v>74</v>
       </c>
     </row>
@@ -1371,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1379,154 +1616,180 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2">
-        <v>763.45</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20.36</v>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
-        <v>705.75</v>
+        <v>763.45</v>
       </c>
       <c r="F3" s="2">
-        <v>25.53</v>
+        <v>20.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2">
-        <v>701253</v>
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
-        <v>226.12</v>
+        <v>705.75</v>
       </c>
       <c r="F4" s="2">
-        <v>23.72</v>
+        <v>25.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
-        <v>208750</v>
+        <v>701253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
-        <v>80.62</v>
+        <v>226.12</v>
       </c>
       <c r="F5" s="2">
-        <v>64.2</v>
+        <v>23.72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2">
-        <v>152712</v>
+        <v>208750</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2">
+        <v>80.62</v>
+      </c>
+      <c r="F6" s="2">
+        <v>64.2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2">
+        <v>152712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>86</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2">
         <v>509.68</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>23.86</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
         <v>358809</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>76年04月21曰</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行永和分行</t>
@@ -849,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -902,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -944,13 +947,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -965,13 +968,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -986,13 +989,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1007,13 +1010,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1028,13 +1031,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1049,13 +1052,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1070,13 +1073,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1091,13 +1094,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1112,13 +1115,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1133,13 +1136,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1154,13 +1157,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1175,13 +1178,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1196,13 +1199,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1219,13 +1222,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1242,13 +1245,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1265,13 +1268,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1304,13 +1307,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1342,7 +1345,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1354,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1386,7 +1389,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1398,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1430,7 +1433,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1442,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1474,7 +1477,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1486,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1518,7 +1521,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1530,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1562,7 +1565,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1574,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1616,25 +1619,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1642,25 +1645,25 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1668,13 +1671,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>763.45</v>
@@ -1683,10 +1686,10 @@
         <v>20.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1694,13 +1697,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>705.75</v>
@@ -1709,7 +1712,7 @@
         <v>25.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
         <v>701253</v>
@@ -1720,13 +1723,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>226.12</v>
@@ -1735,7 +1738,7 @@
         <v>23.72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
         <v>208750</v>
@@ -1746,13 +1749,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>80.62</v>
@@ -1761,7 +1764,7 @@
         <v>64.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>152712</v>
@@ -1772,13 +1775,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>509.68</v>
@@ -1787,7 +1790,7 @@
         <v>23.86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
         <v>358809</v>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -128,61 +128,70 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行永和分行</t>
   </si>
   <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中和宜安郵局</t>
+  </si>
+  <si>
+    <t>國防部主計局同袍儲蓄會</t>
+  </si>
+  <si>
+    <t>萬泰商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行南台北分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中和宜安郵局</t>
-  </si>
-  <si>
-    <t>國防部主計局同袍儲蓄會</t>
-  </si>
-  <si>
-    <t>萬泰商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行南台北分行</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>三洋電</t>
@@ -939,13 +948,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -956,334 +965,646 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>4161600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>4161600</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>461344</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>522300</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>358750</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>550000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>543375</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>91991</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>78533</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>112695.89</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>35593.46</v>
-      </c>
-      <c r="G13" s="2">
         <v>1049651.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G14" s="2">
         <v>294900</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <v>6197.22</v>
-      </c>
-      <c r="G15" s="2">
         <v>182838</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>11000</v>
-      </c>
-      <c r="G16" s="2">
         <v>440000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1754</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1307,13 +1628,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1345,7 +1666,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1357,13 +1678,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>23330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1389,7 +1710,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1401,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1433,7 +1754,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1445,13 +1766,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
         <v>1700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1477,7 +1798,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1489,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
         <v>1590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1521,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1533,13 +1854,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
         <v>6710</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1565,7 +1886,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1577,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
         <v>550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1619,25 +1940,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1645,25 +1966,25 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1671,13 +1992,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
         <v>763.45</v>
@@ -1686,10 +2007,10 @@
         <v>20.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1697,13 +2018,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>705.75</v>
@@ -1712,7 +2033,7 @@
         <v>25.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2">
         <v>701253</v>
@@ -1723,13 +2044,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>226.12</v>
@@ -1738,7 +2059,7 @@
         <v>23.72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>208750</v>
@@ -1749,13 +2070,13 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>80.62</v>
@@ -1764,7 +2085,7 @@
         <v>64.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>152712</v>
@@ -1775,13 +2096,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>509.68</v>
@@ -1790,7 +2111,7 @@
         <v>23.86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>358809</v>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -11,14 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="債券" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -215,30 +215,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>富達新興市場基金</t>
   </si>
   <si>
+    <t>458621</t>
+  </si>
+  <si>
     <t>富達歐洲小型企業基金</t>
   </si>
   <si>
@@ -249,9 +231,6 @@
   </si>
   <si>
     <t>貝萊德世界能源基金</t>
-  </si>
-  <si>
-    <t>458621</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1943,56 +1922,56 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1">
+        <v>763.45</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20.36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>763.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2001,24 +1980,24 @@
         <v>46</v>
       </c>
       <c r="E3" s="2">
-        <v>763.45</v>
+        <v>705.75</v>
       </c>
       <c r="F3" s="2">
-        <v>20.36</v>
+        <v>25.53</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
+      <c r="H3" s="2">
+        <v>701253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2027,24 +2006,24 @@
         <v>46</v>
       </c>
       <c r="E4" s="2">
-        <v>705.75</v>
+        <v>226.12</v>
       </c>
       <c r="F4" s="2">
-        <v>25.53</v>
+        <v>23.72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="2">
-        <v>701253</v>
+        <v>208750</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2053,24 +2032,24 @@
         <v>46</v>
       </c>
       <c r="E5" s="2">
-        <v>226.12</v>
+        <v>80.62</v>
       </c>
       <c r="F5" s="2">
-        <v>23.72</v>
+        <v>64.2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="2">
-        <v>208750</v>
+        <v>152712</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2079,41 +2058,15 @@
         <v>46</v>
       </c>
       <c r="E6" s="2">
-        <v>80.62</v>
+        <v>509.68</v>
       </c>
       <c r="F6" s="2">
-        <v>64.2</v>
+        <v>23.86</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="2">
-        <v>152712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2">
-        <v>509.68</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.86</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2">
         <v>358809</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
+++ b/legislator/property/output/normal/陳鎮湘_2012-04-05_財產申報表_tmpc08e1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -215,12 +215,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>富達新興市場基金</t>
   </si>
   <si>
-    <t>458621</t>
-  </si>
-  <si>
     <t>富達歐洲小型企業基金</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>貝萊德世界能源基金</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -1911,41 +1914,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1">
-        <v>763.45</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20.36</v>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1962,11 +1986,32 @@
       <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="2">
+        <v>458621</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>83</v>
       </c>
@@ -1991,8 +2036,29 @@
       <c r="H3" s="2">
         <v>701253</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -2017,8 +2083,29 @@
       <c r="H4" s="2">
         <v>208750</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>85</v>
       </c>
@@ -2043,8 +2130,29 @@
       <c r="H5" s="2">
         <v>152712</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>86</v>
       </c>
@@ -2068,6 +2176,27 @@
       </c>
       <c r="H6" s="2">
         <v>358809</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
